--- a/Data/Transitions/19371938Translation.xlsx
+++ b/Data/Transitions/19371938Translation.xlsx
@@ -379,7 +379,7 @@
     <t>{203.0: 1.0}</t>
   </si>
   <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -388,7 +388,7 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 1.0, 477.0: 0.07756537024829707}</t>
+    <t>{207.0: 1.0, 477.0: 0.07758241758241759}</t>
   </si>
   <si>
     <t>{208.0: 1.0}</t>
@@ -430,7 +430,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
@@ -442,7 +442,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -478,10 +478,13 @@
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -637,10 +640,10 @@
     <t>{296.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9935198943371306}</t>
-  </si>
-  <si>
-    <t>{298.0: 1.0, 297.0: 0.005448241703813769}</t>
+    <t>{297.0: 0.9934830434602133}</t>
+  </si>
+  <si>
+    <t>{298.0: 1.0, 297.0: 0.005479224606699597}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -673,7 +676,7 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
@@ -703,9 +706,6 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
@@ -721,7 +721,7 @@
     <t>{402.0: 1.0}</t>
   </si>
   <si>
-    <t>{403.0: 0.8801185344827587}</t>
+    <t>{403.0: 0.8776632302405498}</t>
   </si>
   <si>
     <t>{404.0: 1.0}</t>
@@ -736,7 +736,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -793,10 +793,10 @@
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 1.0}</t>
@@ -841,13 +841,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.9224346297517029}</t>
+    <t>{477.0: 0.9224175824175824}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 1.0, 942.0: 0.009202453987730062}</t>
+    <t>{479.0: 1.0, 942.0: 0.009213051823416507}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -880,7 +880,7 @@
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
@@ -919,7 +919,7 @@
     <t>{502.0: 1.0}</t>
   </si>
   <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -1027,7 +1027,7 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9980719794344473, 752.0: 0.04920514761544285}</t>
+    <t>{580.0: 0.9981181109418407, 752.0: 0.04937333839726547}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.9507948523845572, 580.0: 0.0019280205655526992}</t>
+    <t>{752.0: 0.9506266616027346, 580.0: 0.0018818890581593333}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1522,7 +1522,7 @@
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 1.0, 922.0: 0.0022135194959986377}</t>
+    <t>{852.0: 1.0, 922.0: 0.0022859152452962897}</t>
   </si>
   <si>
     <t>{853.0: 1.0}</t>
@@ -1633,7 +1633,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1642,7 +1642,7 @@
     <t>{921.0: 1.0}</t>
   </si>
   <si>
-    <t>{922.0: 0.9977864805040013}</t>
+    <t>{922.0: 0.9977140847547037}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1663,10 +1663,10 @@
     <t>{928.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9982030043520989, 930.0: 0.002861685214626391}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9971383147853736, 929.0: 0.0017969956479011652}</t>
+    <t>{929.0: 0.9981531979973741, 930.0: 0.002952271608988027}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.997047728391012, 929.0: 0.0018468020026259217}</t>
   </si>
   <si>
     <t>{931.0: 1.0}</t>
@@ -1702,7 +1702,7 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
+    <t>{942.0: 0.9907869481765835}</t>
   </si>
   <si>
     <t>{943.0: 1.0}</t>
@@ -1759,13 +1759,13 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
-  </si>
-  <si>
-    <t>{222.0: 0.8492496589358799, 503.0: 0.15075034106412005}</t>
-  </si>
-  <si>
-    <t>{227.0: 0.9998191354675349, 297.0: 0.00018086453246518358}</t>
+    <t>{207.0: 0.4480062548866302, 477.0: 0.5519937451133698}</t>
+  </si>
+  <si>
+    <t>{222.0: 0.8489405331510594, 503.0: 0.15105946684894053}</t>
+  </si>
+  <si>
+    <t>{227.0: 0.9998209810239885, 297.0: 0.00017901897601145723}</t>
   </si>
   <si>
     <t>{240.0: 0.23802619996893284, 241.0: 0.7619738000310672}</t>
@@ -1777,19 +1777,19 @@
     <t>{297.0: 1.0}</t>
   </si>
   <si>
-    <t>{298.0: 0.9860774179938825, 297.0: 0.013922582006117498}</t>
-  </si>
-  <si>
-    <t>{309.0: 0.9989234081820978, 204.0: 0.001076591817902184}</t>
+    <t>{298.0: 0.9860788863109049, 297.0: 0.013921113689095127}</t>
+  </si>
+  <si>
+    <t>{309.0: 0.9989764585465711, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{403.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
-  </si>
-  <si>
-    <t>{430.0: 0.9998131190431695, 431.0: 0.00018688095683049897}</t>
+    <t>{408.0: 0.9431382570917455, 403.0: 0.056861742908254534}</t>
+  </si>
+  <si>
+    <t>{430.0: 0.9996432393863718, 431.0: 0.00035676061362825543}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1798,34 +1798,34 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.977859778597786, 942.0: 0.02214022140221402}</t>
-  </si>
-  <si>
-    <t>{490.0: 0.9778869778869779, 503.0: 0.022113022113022112}</t>
+    <t>{479.0: 0.9774223894637818, 942.0: 0.022577610536218252}</t>
+  </si>
+  <si>
+    <t>{490.0: 0.9779141104294479, 503.0: 0.022085889570552148}</t>
   </si>
   <si>
     <t>{503.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643214, 752.0: 0.011817107535678575}</t>
-  </si>
-  <si>
-    <t>{752.0: 0.9917094354520332, 580.0: 0.008290564547966837}</t>
-  </si>
-  <si>
-    <t>{852.0: 0.9899146625290923, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{919.0: 0.9939789262418465, 297.0: 0.006021073758153537}</t>
+    <t>{580.0: 0.9884629037983671, 752.0: 0.011537096201632943}</t>
+  </si>
+  <si>
+    <t>{752.0: 0.9916798732171157, 580.0: 0.00832012678288431}</t>
+  </si>
+  <si>
+    <t>{852.0: 0.9898358092259578, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{919.0: 0.9941104294478528, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{922.0: 1.0}</t>
   </si>
   <si>
-    <t>{929.0: 0.9992411040530665, 930.0: 0.0007588959469334982}</t>
-  </si>
-  <si>
-    <t>{930.0: 0.9932432432432432, 929.0: 0.006756756756756757}</t>
+    <t>{929.0: 0.9992200476637538, 930.0: 0.0007799523362461183}</t>
+  </si>
+  <si>
+    <t>{930.0: 0.9930302205281786, 929.0: 0.006969779471821399}</t>
   </si>
   <si>
     <t>{942.0: 1.0}</t>
@@ -3888,7 +3888,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -3899,7 +3899,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
@@ -3921,7 +3921,7 @@
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
@@ -3954,7 +3954,7 @@
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
@@ -3965,7 +3965,7 @@
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -3976,7 +3976,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -3987,7 +3987,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4009,7 +4009,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4020,7 +4020,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
@@ -4075,7 +4075,7 @@
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
@@ -4108,7 +4108,7 @@
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4130,7 +4130,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4141,7 +4141,7 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
@@ -4163,7 +4163,7 @@
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
@@ -4185,7 +4185,7 @@
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4196,7 +4196,7 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
@@ -4229,7 +4229,7 @@
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4240,7 +4240,7 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
@@ -4251,7 +4251,7 @@
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
@@ -4262,7 +4262,7 @@
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
@@ -4273,7 +4273,7 @@
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4284,7 +4284,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4306,7 +4306,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4317,7 +4317,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4328,7 +4328,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4350,7 +4350,7 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4394,7 +4394,7 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4427,7 +4427,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4438,7 +4438,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4449,40 +4449,40 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
       </c>
       <c r="C206" t="s">
-        <v>586</v>
+        <v>207</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>587</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
@@ -4493,7 +4493,7 @@
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4526,7 +4526,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4537,7 +4537,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
@@ -4570,7 +4570,7 @@
     </row>
     <row r="217" spans="1:3">
       <c r="A217">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B217" t="s">
         <v>218</v>
@@ -4581,29 +4581,29 @@
     </row>
     <row r="218" spans="1:3">
       <c r="A218">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B218" t="s">
         <v>219</v>
       </c>
       <c r="C218" t="s">
-        <v>588</v>
+        <v>219</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B219" t="s">
         <v>220</v>
       </c>
       <c r="C219" t="s">
-        <v>220</v>
+        <v>588</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B220" t="s">
         <v>221</v>
@@ -4614,7 +4614,7 @@
     </row>
     <row r="221" spans="1:3">
       <c r="A221">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B221" t="s">
         <v>222</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="222" spans="1:3">
       <c r="A222">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B222" t="s">
         <v>223</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="223" spans="1:3">
       <c r="A223">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B223" t="s">
         <v>224</v>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="224" spans="1:3">
       <c r="A224">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B224" t="s">
         <v>225</v>
@@ -4658,7 +4658,7 @@
     </row>
     <row r="225" spans="1:3">
       <c r="A225">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B225" t="s">
         <v>226</v>
@@ -4669,7 +4669,7 @@
     </row>
     <row r="226" spans="1:3">
       <c r="A226">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B226" t="s">
         <v>227</v>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="227" spans="1:3">
       <c r="A227">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B227" t="s">
         <v>228</v>
@@ -4691,7 +4691,7 @@
     </row>
     <row r="228" spans="1:3">
       <c r="A228">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B228" t="s">
         <v>229</v>
